--- a/DATA_goal/Junction_Flooding_189.xlsx
+++ b/DATA_goal/Junction_Flooding_189.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>41621.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.06</v>
+        <v>2.81</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.96</v>
+        <v>2.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.87</v>
+        <v>3.09</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>149.91</v>
+        <v>14.99</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.01</v>
+        <v>2.8</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.25</v>
+        <v>1.93</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.29</v>
+        <v>2.83</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41621.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.15</v>
+        <v>0.61</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.42</v>
+        <v>1.74</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.64</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.51</v>
+        <v>1.75</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.87</v>
+        <v>2.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41621.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.81</v>
+        <v>1.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.85</v>
+        <v>1.59</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.54</v>
+        <v>2.65</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>96.59</v>
+        <v>9.66</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.05</v>
+        <v>0.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41621.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>37.07</v>
+        <v>3.71</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30.87</v>
+        <v>3.09</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>49.79</v>
+        <v>4.98</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>20.62</v>
+        <v>2.06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.58</v>
+        <v>0.46</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>196.23</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.11</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.21</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41621.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>21.31</v>
+        <v>2.13</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>58.96</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>2.43</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41621.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Y8" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R8" s="4" t="n">
+      <c r="Z8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>1.97</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41621.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>39.24</v>
+        <v>3.92</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>32.56</v>
+        <v>3.26</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>50.9</v>
+        <v>5.09</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>21.81</v>
+        <v>2.18</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>207.74</v>
+        <v>20.77</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>39.25</v>
+        <v>3.93</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>26.66</v>
+        <v>2.67</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>46.15</v>
+        <v>4.62</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="10">
@@ -1487,11 +1487,11 @@
         <v>41621.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
       </c>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>0</v>
@@ -1526,64 +1526,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V10" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
+      <c r="W10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4" t="n">
         <v>0.84</v>
       </c>
-      <c r="V10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
       <c r="AG10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_189.xlsx
+++ b/DATA_goal/Junction_Flooding_189.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41621.34027777778</v>
+        <v>44870.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>5.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>24.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41621.34722222222</v>
+        <v>44870.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.81</v>
+        <v>3.18</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.09</v>
+        <v>4.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>1.15</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X3" s="4" t="n">
+      <c r="Y3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>1.01</v>
       </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.85</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.83</v>
+        <v>4.21</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41621.35416666666</v>
+        <v>44870.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.48</v>
+        <v>0.91</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.42</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.64</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="AB4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH4" s="4" t="n">
         <v>0.48</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>0.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41621.36111111111</v>
+        <v>44870.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.85</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.66</v>
+        <v>1.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.88</v>
+        <v>3.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.59</v>
+        <v>2.56</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.65</v>
+        <v>4.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.76</v>
+        <v>1.26</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.77</v>
+        <v>1.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.66</v>
+        <v>16.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.88</v>
+        <v>3.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.64</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.84</v>
+        <v>1.31</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.44</v>
+        <v>3.74</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.77</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41621.36805555555</v>
+        <v>44870.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.69</v>
+        <v>22.58</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.29</v>
+        <v>16.69</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>1.19</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.71</v>
+        <v>48.92</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.09</v>
+        <v>40.36</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.35</v>
+        <v>17.77</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.98</v>
+        <v>67.38</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.06</v>
+        <v>27.34</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.93</v>
+        <v>12.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.39</v>
+        <v>18.12</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.49</v>
+        <v>19.71</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.55</v>
+        <v>20.73</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.46</v>
+        <v>5.68</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.32</v>
+        <v>17.67</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.89</v>
+        <v>25.16</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.11</v>
+        <v>14.85</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.74</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>19.62</v>
+        <v>261.65</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.71</v>
+        <v>49.39</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.25</v>
+        <v>16.31</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.53</v>
+        <v>33.24</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.32</v>
+        <v>17.58</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.21</v>
+        <v>2.5</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.48</v>
+        <v>32.94</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.09</v>
+        <v>14.41</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.97</v>
+        <v>12.76</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.12</v>
+        <v>15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.6</v>
+        <v>20.66</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.54</v>
+        <v>61.15</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.72</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41621.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41621.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41621.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41621.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41621.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>30.97</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>2.79</v>
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_189.xlsx
+++ b/DATA_goal/Junction_Flooding_189.xlsx
@@ -470,7 +470,7 @@
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44870.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.45</v>
+        <v>44.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.66</v>
+        <v>36.59</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.42</v>
+        <v>54.16</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.79</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.57</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.32</v>
+        <v>23.19</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.44</v>
+        <v>244.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.6</v>
+        <v>46.03</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.04</v>
+        <v>30.4</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.69</v>
+        <v>26.88</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.23</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.79</v>
+        <v>47.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44870.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.18</v>
+        <v>31.81</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.62</v>
+        <v>26.2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.64</v>
+        <v>46.42</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.43</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.01</v>
+        <v>170.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.27</v>
+        <v>32.65</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.48</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.21</v>
+        <v>42.14</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44870.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.38</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.57</v>
+        <v>55.66</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44870.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.11</v>
+        <v>31.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.15</v>
+        <v>41.51</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.6</v>
+        <v>15.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.43</v>
+        <v>164.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.14</v>
+        <v>31.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.1</v>
+        <v>21.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.74</v>
+        <v>37.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_189.xlsx
+++ b/DATA_goal/Junction_Flooding_189.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,100 +655,100 @@
         <v>44870.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.41</v>
+        <v>14.405</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.09</v>
+        <v>4.093</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.47</v>
+        <v>44.473</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.59</v>
+        <v>36.592</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.64</v>
+        <v>16.635</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.16</v>
+        <v>54.157</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.79</v>
+        <v>10.793</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.57</v>
+        <v>16.568</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.66</v>
+        <v>17.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.45</v>
+        <v>18.451</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.31</v>
+        <v>5.311</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.19</v>
+        <v>23.194</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.97</v>
+        <v>13.966</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>3.726</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.455</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>244.44</v>
+        <v>244.445</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.03</v>
+        <v>46.035</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.4</v>
+        <v>30.403</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.79</v>
+        <v>15.788</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.88</v>
+        <v>26.878</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.18</v>
+        <v>12.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.25</v>
+        <v>14.251</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.23</v>
+        <v>18.232</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.88</v>
+        <v>47.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.43</v>
+        <v>8.427</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>19.09</v>
@@ -759,100 +759,100 @@
         <v>44870.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.49</v>
+        <v>10.489</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.76</v>
+        <v>1.757</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.81</v>
+        <v>31.807</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.2</v>
+        <v>26.197</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.72</v>
+        <v>11.721</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>46.42</v>
+        <v>46.423</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.78</v>
+        <v>7.777</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.68</v>
+        <v>11.682</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>12.82</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.37</v>
+        <v>13.367</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.74</v>
+        <v>3.745</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.43</v>
+        <v>16.428</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.02</v>
+        <v>10.018</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.595</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>170.09</v>
+        <v>170.086</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.65</v>
+        <v>32.652</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.62</v>
+        <v>21.624</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.48</v>
+        <v>11.475</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.85</v>
+        <v>1.854</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.15</v>
+        <v>22.148</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.608000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.08</v>
+        <v>10.081</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.34</v>
+        <v>13.338</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>42.14</v>
+        <v>42.142</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.94</v>
+        <v>5.938</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>13.45</v>
@@ -863,103 +863,103 @@
         <v>44870.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.28</v>
+        <v>5.285</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.51</v>
+        <v>3.512</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.948</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.13</v>
+        <v>11.129</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.106999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.16</v>
+        <v>4.159</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.38</v>
+        <v>20.377</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.7</v>
+        <v>2.695</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.97</v>
+        <v>3.969</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>4.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.65</v>
+        <v>4.652</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.335</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.79</v>
+        <v>5.794</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.73</v>
+        <v>3.727</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.49</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.66</v>
+        <v>55.657</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.78</v>
+        <v>11.783</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.66</v>
+        <v>7.658</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.11</v>
+        <v>4.114</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.17</v>
+        <v>9.167</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.16</v>
+        <v>3.157</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.68</v>
+        <v>3.677</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>4.69</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>18.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.77</v>
+        <v>4.774</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44870.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.15</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_189.xlsx
+++ b/DATA_goal/Junction_Flooding_189.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,103 +967,207 @@
         <v>44870.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>14.413</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>10.488</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>31.091</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>25.615</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>11.342</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>41.509</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>17.452</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>7.667</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>11.443</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>12.559</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>13.153</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.621</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>11.279</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>15.972</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>9.592000000000001</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>164.333</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>31.444</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>10.411</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>21.019</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>11.202</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>20.188</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>9.196</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>8.218</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>9.647</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>13.134</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>37.363</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>5.814</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>13.016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44870.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>48.92</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>40.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>67.38</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>261.65</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>49.39</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>14.41</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>25.62</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>41.51</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>164.33</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>20.19</v>
-      </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AB6" s="4" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+      <c r="AH6" s="4" t="n">
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_189.xlsx
+++ b/DATA_goal/Junction_Flooding_189.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,207 +967,103 @@
         <v>44870.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.413</v>
+        <v>14.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.488</v>
+        <v>10.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.038</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.091</v>
+        <v>31.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.615</v>
+        <v>25.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.342</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.509</v>
+        <v>41.51</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.452</v>
+        <v>17.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.667</v>
+        <v>7.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.443</v>
+        <v>11.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.559</v>
+        <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.153</v>
+        <v>13.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.621</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.279</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.972</v>
+        <v>15.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.592000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.655</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.333</v>
+        <v>164.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.444</v>
+        <v>31.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.411</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.019</v>
+        <v>21.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.202</v>
+        <v>11.2</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.695</v>
+        <v>1.69</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.188</v>
+        <v>20.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.196</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.218</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.647</v>
+        <v>9.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.134</v>
+        <v>13.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.363</v>
+        <v>37.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.814</v>
+        <v>5.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.016</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44870.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.15</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>
